--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_7_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84179.31111010071</v>
+        <v>77515.59282478315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20701883.53843272</v>
+        <v>20060381.09850432</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10540043.12723659</v>
+        <v>10565397.32237267</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5208094.134874362</v>
+        <v>5226265.8016522</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>8.608704107948919</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>162.1683229477401</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -724,10 +724,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -800,7 +800,7 @@
         <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>194.5561633951151</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
         <v>161.8425727710037</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>92.91694584241766</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -882,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>117.0689203790972</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>139.3556070303399</v>
       </c>
       <c r="C5" t="n">
-        <v>171.7481746104541</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452987</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
         <v>182.9205141195597</v>
@@ -1056,25 +1056,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>64.20862281760012</v>
       </c>
       <c r="V7" t="n">
-        <v>33.33594769509896</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>70.31312004925383</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>196.4882261307906</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>127.6377393258623</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
         <v>116.3308444476703</v>
@@ -1229,7 +1229,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H9" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>65.76953573495733</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>199.0012608864796</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54.0261497961522</v>
+        <v>205.1522300959972</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>22.61591671524058</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>37.82583983800688</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>401.6953115779395</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>220.1811539388998</v>
       </c>
     </row>
     <row r="15">
@@ -1770,16 +1770,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>13.90515190327014</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>65.76953573495733</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>71.77132399094423</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>343.9380482334533</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>149.0345425796564</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.9915039376967</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2064,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,10 +2086,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>140.0226407924335</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>7.128382815017071</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>112.7475578613062</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>87.78010530808255</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>297.7125191250144</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>36.78855201262324</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>68.83205621563042</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>34.79484432979908</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>61.31462859298482</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>40.57471872540774</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>50.79956318996859</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.4851730221162</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2781,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>125.0832493553116</v>
+        <v>383.9248024889602</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>95.80739111109557</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>249.9458287341112</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>19.72636733099545</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>197.1207328695857</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3198,16 +3198,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>62.57969500605703</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>151.8300863634095</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>146.1794630032204</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>57.29536767763145</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3432,7 +3432,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>56.98266231154685</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3444,7 +3444,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>90.90586913785523</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>41.94115881546262</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>42.57499518860931</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.9103746189776</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>61.84402313404613</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,7 +3678,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>24.16536155327146</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>131.0768658353169</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>113.1049119500778</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>122.7682403596006</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>117.7761222978271</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>137.0099033214103</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>92.17427567269793</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>43.7739709943189</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.07026465915271</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
-        <v>136.6764751078761</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>182.8587405411469</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -4137,7 +4137,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>68.83205621563042</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.5425010979719</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>179.325275938843</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.60765317592666</v>
+        <v>200.7183792767259</v>
       </c>
       <c r="C2" t="n">
-        <v>45.60765317592666</v>
+        <v>200.7183792767259</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082674</v>
+        <v>200.7183792767259</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082674</v>
+        <v>200.7183792767259</v>
       </c>
       <c r="F2" t="n">
         <v>36.91199246082674</v>
@@ -4342,10 +4342,10 @@
         <v>399.5154512777223</v>
       </c>
       <c r="N2" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O2" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P2" t="n">
         <v>1271.957808655251</v>
@@ -4363,19 +4363,19 @@
         <v>1624.67405208597</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V2" t="n">
-        <v>1267.18463721222</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W2" t="n">
-        <v>870.7932875125664</v>
+        <v>612.4383781089787</v>
       </c>
       <c r="X2" t="n">
-        <v>870.7932875125664</v>
+        <v>200.7183792767259</v>
       </c>
       <c r="Y2" t="n">
-        <v>465.4560174674567</v>
+        <v>200.7183792767259</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L3" t="n">
-        <v>950.4838058662885</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M3" t="n">
-        <v>950.4838058662885</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N3" t="n">
-        <v>950.4838058662885</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O3" t="n">
-        <v>950.4838058662885</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P3" t="n">
         <v>1306.794406253903</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302.7400564328377</v>
+        <v>710.2713085277261</v>
       </c>
       <c r="C4" t="n">
-        <v>130.7674933117537</v>
+        <v>538.2987454066421</v>
       </c>
       <c r="D4" t="n">
-        <v>130.7674933117537</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="E4" t="n">
-        <v>130.7674933117537</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F4" t="n">
-        <v>130.7674933117537</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G4" t="n">
-        <v>130.7674933117537</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H4" t="n">
-        <v>130.7674933117537</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
         <v>36.91199246082674</v>
@@ -4497,7 +4497,7 @@
         <v>320.9309218908219</v>
       </c>
       <c r="M4" t="n">
-        <v>695.080641322875</v>
+        <v>712.1167168610727</v>
       </c>
       <c r="N4" t="n">
         <v>1072.572152198911</v>
@@ -4515,25 +4515,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1798.56100972851</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1518.376561228814</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V4" t="n">
-        <v>1236.665093836843</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W4" t="n">
-        <v>961.8126900093562</v>
+        <v>828.5227432540869</v>
       </c>
       <c r="X4" t="n">
-        <v>719.2487934551613</v>
+        <v>710.2713085277261</v>
       </c>
       <c r="Y4" t="n">
-        <v>492.9060251449033</v>
+        <v>710.2713085277261</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1335.895058869367</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="C5" t="n">
-        <v>1162.412054212343</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="D5" t="n">
-        <v>739.1194333973433</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E5" t="n">
-        <v>739.1194333973433</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F5" t="n">
-        <v>739.1194333973433</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
         <v>36.91199246082674</v>
@@ -4573,22 +4573,22 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L5" t="n">
-        <v>856.3013579804531</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M5" t="n">
-        <v>1313.087264683184</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N5" t="n">
-        <v>1769.873171385915</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O5" t="n">
-        <v>1769.873171385915</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P5" t="n">
-        <v>1769.873171385915</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q5" t="n">
-        <v>1769.873171385915</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
@@ -4603,16 +4603,16 @@
         <v>1741.232328914477</v>
       </c>
       <c r="V5" t="n">
-        <v>1741.232328914477</v>
+        <v>1383.742914040727</v>
       </c>
       <c r="W5" t="n">
-        <v>1741.232328914477</v>
+        <v>987.3515643410735</v>
       </c>
       <c r="X5" t="n">
-        <v>1741.232328914477</v>
+        <v>987.3515643410735</v>
       </c>
       <c r="Y5" t="n">
-        <v>1335.895058869367</v>
+        <v>582.0142942959639</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C6" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H6" t="n">
         <v>36.91199246082674</v>
@@ -4649,22 +4649,22 @@
         <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>316.0561247023297</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L6" t="n">
-        <v>772.8420314050605</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M6" t="n">
-        <v>772.8420314050605</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N6" t="n">
-        <v>772.8420314050605</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O6" t="n">
-        <v>1229.627938107791</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P6" t="n">
-        <v>1686.413844810522</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q6" t="n">
         <v>1763.580312956634</v>
@@ -4676,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4685,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>643.8316709403036</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="C7" t="n">
-        <v>471.8591078192196</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D7" t="n">
-        <v>308.5423349459903</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E7" t="n">
-        <v>308.5423349459903</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F7" t="n">
-        <v>136.6805607205508</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I7" t="n">
         <v>36.91199246082674</v>
@@ -4728,22 +4728,22 @@
         <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>303.8948463526241</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>303.8948463526241</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4758,19 +4758,19 @@
         <v>1385.086614473545</v>
       </c>
       <c r="U7" t="n">
-        <v>1385.086614473545</v>
+        <v>1320.229419708292</v>
       </c>
       <c r="V7" t="n">
-        <v>1351.413940034051</v>
+        <v>1038.517952316321</v>
       </c>
       <c r="W7" t="n">
-        <v>1076.561536206564</v>
+        <v>1038.517952316321</v>
       </c>
       <c r="X7" t="n">
-        <v>833.9976396523693</v>
+        <v>1038.517952316321</v>
       </c>
       <c r="Y7" t="n">
-        <v>833.9976396523693</v>
+        <v>1038.517952316321</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>107.9353460459316</v>
+        <v>888.013114123569</v>
       </c>
       <c r="C8" t="n">
-        <v>107.9353460459316</v>
+        <v>888.013114123569</v>
       </c>
       <c r="D8" t="n">
-        <v>36.91199246082674</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E8" t="n">
-        <v>36.91199246082674</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F8" t="n">
         <v>36.91199246082674</v>
@@ -4804,25 +4804,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K8" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="M8" t="n">
-        <v>1313.087264683184</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="N8" t="n">
-        <v>1313.087264683184</v>
+        <v>358.3859952497895</v>
       </c>
       <c r="O8" t="n">
-        <v>1313.087264683184</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
         <v>1728.043288159434</v>
@@ -4837,19 +4837,19 @@
         <v>1741.232328914477</v>
       </c>
       <c r="U8" t="n">
-        <v>1741.232328914477</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.232328914477</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="W8" t="n">
-        <v>1344.840979214824</v>
+        <v>1086.486069811236</v>
       </c>
       <c r="X8" t="n">
-        <v>933.1209803825714</v>
+        <v>888.013114123569</v>
       </c>
       <c r="Y8" t="n">
-        <v>527.7837103374617</v>
+        <v>888.013114123569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H9" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L9" t="n">
-        <v>308.6094817404178</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M9" t="n">
-        <v>765.3953884431487</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N9" t="n">
-        <v>1222.18129514588</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O9" t="n">
-        <v>1678.967201848611</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q9" t="n">
         <v>1763.580312956634</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1120.093114985063</v>
+        <v>704.55571511241</v>
       </c>
       <c r="C10" t="n">
-        <v>948.1205518639796</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D10" t="n">
-        <v>784.8037789907503</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E10" t="n">
-        <v>618.5955731436038</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F10" t="n">
-        <v>446.7337989181643</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I10" t="n">
         <v>36.91199246082674</v>
@@ -4974,7 +4974,7 @@
         <v>1066.806038155494</v>
       </c>
       <c r="N10" t="n">
-        <v>1428.000280878674</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
         <v>1428.000280878674</v>
@@ -4989,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1779.165748561582</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1779.165748561582</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U10" t="n">
-        <v>1779.165748561582</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V10" t="n">
-        <v>1779.165748561582</v>
+        <v>1121.064452134734</v>
       </c>
       <c r="W10" t="n">
-        <v>1779.165748561582</v>
+        <v>1121.064452134734</v>
       </c>
       <c r="X10" t="n">
-        <v>1536.601852007387</v>
+        <v>1121.064452134734</v>
       </c>
       <c r="Y10" t="n">
-        <v>1310.259083697129</v>
+        <v>894.7216838244756</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>923.8337755146551</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="C11" t="n">
-        <v>496.9330455279553</v>
+        <v>886.181553127969</v>
       </c>
       <c r="D11" t="n">
-        <v>496.9330455279553</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E11" t="n">
-        <v>496.9330455279553</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F11" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G11" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H11" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I11" t="n">
         <v>36.91199246082674</v>
@@ -5047,19 +5047,19 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L11" t="n">
-        <v>932.7282368344229</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M11" t="n">
-        <v>932.7282368344229</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N11" t="n">
-        <v>932.7282368344229</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O11" t="n">
-        <v>932.7282368344229</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P11" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q11" t="n">
         <v>1845.599623041337</v>
@@ -5071,22 +5071,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U11" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V11" t="n">
-        <v>1383.742914040727</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="W11" t="n">
-        <v>1383.742914040727</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="X11" t="n">
-        <v>1383.742914040727</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="Y11" t="n">
-        <v>978.405643995617</v>
+        <v>1520.30675795911</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J12" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K12" t="n">
-        <v>36.91199246082674</v>
+        <v>475.2419029331439</v>
       </c>
       <c r="L12" t="n">
-        <v>493.6978991635576</v>
+        <v>475.2419029331439</v>
       </c>
       <c r="M12" t="n">
-        <v>950.4838058662885</v>
+        <v>932.0278096358747</v>
       </c>
       <c r="N12" t="n">
+        <v>932.0278096358747</v>
+      </c>
+      <c r="O12" t="n">
+        <v>932.0278096358747</v>
+      </c>
+      <c r="P12" t="n">
         <v>1388.813716338606</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1845.599623041337</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="Q12" t="n">
         <v>1845.599623041337</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.9652306584402</v>
+        <v>876.528278233494</v>
       </c>
       <c r="C13" t="n">
-        <v>346.9652306584402</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D13" t="n">
-        <v>346.9652306584402</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E13" t="n">
-        <v>346.9652306584402</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F13" t="n">
-        <v>346.9652306584402</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G13" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H13" t="n">
         <v>36.91199246082674</v>
@@ -5202,49 +5202,49 @@
         <v>94.40332068498475</v>
       </c>
       <c r="K13" t="n">
-        <v>94.40332068498475</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L13" t="n">
-        <v>449.0926419794055</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M13" t="n">
-        <v>840.2784369496563</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N13" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O13" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P13" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S13" t="n">
-        <v>1675.464575560472</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T13" t="n">
-        <v>1652.620215242047</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U13" t="n">
-        <v>1372.435766742351</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V13" t="n">
-        <v>1090.72429935038</v>
+        <v>1066.69424694556</v>
       </c>
       <c r="W13" t="n">
-        <v>815.8718955228931</v>
+        <v>1066.69424694556</v>
       </c>
       <c r="X13" t="n">
-        <v>573.3079989686981</v>
+        <v>1066.69424694556</v>
       </c>
       <c r="Y13" t="n">
-        <v>346.9652306584402</v>
+        <v>1066.69424694556</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>904.4624336817722</v>
+        <v>886.181553127969</v>
       </c>
       <c r="C14" t="n">
-        <v>477.5617036950723</v>
+        <v>886.181553127969</v>
       </c>
       <c r="D14" t="n">
-        <v>477.5617036950723</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E14" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F14" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G14" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H14" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I14" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>475.2419029331441</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L14" t="n">
-        <v>932.027809635875</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M14" t="n">
-        <v>1388.813716338606</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N14" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O14" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P14" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
@@ -5311,19 +5311,19 @@
         <v>1520.30675795911</v>
       </c>
       <c r="U14" t="n">
-        <v>1261.951848555523</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V14" t="n">
-        <v>904.4624336817722</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="W14" t="n">
-        <v>904.4624336817722</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="X14" t="n">
-        <v>904.4624336817722</v>
+        <v>1108.586759126858</v>
       </c>
       <c r="Y14" t="n">
-        <v>904.4624336817722</v>
+        <v>886.181553127969</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L15" t="n">
-        <v>493.6978991635576</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M15" t="n">
-        <v>950.4838058662885</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="N15" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="O15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.093114985063</v>
+        <v>638.3567745420212</v>
       </c>
       <c r="C16" t="n">
-        <v>948.1205518639796</v>
+        <v>466.3842114209372</v>
       </c>
       <c r="D16" t="n">
-        <v>784.8037789907503</v>
+        <v>466.3842114209372</v>
       </c>
       <c r="E16" t="n">
-        <v>618.5955731436038</v>
+        <v>452.338603437836</v>
       </c>
       <c r="F16" t="n">
-        <v>446.7337989181643</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G16" t="n">
         <v>280.4768292123964</v>
@@ -5442,13 +5442,13 @@
         <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>675.6202431852428</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="M16" t="n">
-        <v>1066.806038155494</v>
+        <v>712.1167168610727</v>
       </c>
       <c r="N16" t="n">
-        <v>1072.572152198911</v>
+        <v>1089.608227737109</v>
       </c>
       <c r="O16" t="n">
         <v>1428.000280878674</v>
@@ -5460,28 +5460,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T16" t="n">
-        <v>1779.165748561582</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U16" t="n">
-        <v>1779.165748561582</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V16" t="n">
-        <v>1779.165748561582</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W16" t="n">
-        <v>1779.165748561582</v>
+        <v>828.5227432540869</v>
       </c>
       <c r="X16" t="n">
-        <v>1536.601852007387</v>
+        <v>828.5227432540869</v>
       </c>
       <c r="Y16" t="n">
-        <v>1310.259083697129</v>
+        <v>828.5227432540869</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>807.6167832086077</v>
+        <v>1773.103336181797</v>
       </c>
       <c r="C17" t="n">
-        <v>807.6167832086077</v>
+        <v>1346.202606195097</v>
       </c>
       <c r="D17" t="n">
-        <v>384.3241623936079</v>
+        <v>922.9099853800977</v>
       </c>
       <c r="E17" t="n">
-        <v>36.91199246082674</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I17" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L17" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M17" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N17" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O17" t="n">
-        <v>932.7282368344229</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P17" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R17" t="n">
         <v>1845.599623041337</v>
@@ -5545,22 +5545,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T17" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U17" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V17" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W17" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X17" t="n">
-        <v>1212.954053253717</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y17" t="n">
-        <v>807.6167832086077</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>36.9119924608267</v>
       </c>
       <c r="I18" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J18" t="n">
-        <v>36.9119924608267</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K18" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L18" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M18" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N18" t="n">
-        <v>950.4838058662884</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O18" t="n">
-        <v>1306.794406253903</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P18" t="n">
         <v>1306.794406253903</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>819.3536357375208</v>
+        <v>710.2713085277261</v>
       </c>
       <c r="C19" t="n">
-        <v>647.3810726164368</v>
+        <v>538.2987454066421</v>
       </c>
       <c r="D19" t="n">
-        <v>484.0642997432075</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="E19" t="n">
-        <v>317.856093896061</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F19" t="n">
-        <v>145.9943196706214</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G19" t="n">
-        <v>145.9943196706214</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H19" t="n">
         <v>36.91199246082674</v>
@@ -5673,52 +5673,52 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K19" t="n">
-        <v>36.91199246082674</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6013137552475</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M19" t="n">
-        <v>782.7871087254983</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N19" t="n">
-        <v>1160.278619601534</v>
+        <v>1363.171364120812</v>
       </c>
       <c r="O19" t="n">
-        <v>1515.706748281297</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P19" t="n">
-        <v>1806.305960203198</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T19" t="n">
-        <v>1602.260275267237</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U19" t="n">
-        <v>1602.260275267237</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V19" t="n">
-        <v>1320.548807875266</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W19" t="n">
-        <v>1045.696404047779</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="X19" t="n">
-        <v>1045.696404047779</v>
+        <v>860.811250527379</v>
       </c>
       <c r="Y19" t="n">
-        <v>819.3536357375208</v>
+        <v>860.811250527379</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1222.554912082163</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C20" t="n">
-        <v>795.6541820954632</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D20" t="n">
-        <v>795.6541820954632</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E20" t="n">
-        <v>369.6772422433207</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F20" t="n">
-        <v>369.6772422433207</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G20" t="n">
-        <v>369.6772422433207</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H20" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I20" t="n">
         <v>36.91199246082674</v>
@@ -5755,25 +5755,25 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K20" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L20" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M20" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N20" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O20" t="n">
-        <v>932.7282368344229</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P20" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q20" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
@@ -5782,22 +5782,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>1845.599623041337</v>
+        <v>1704.162612139889</v>
       </c>
       <c r="U20" t="n">
-        <v>1587.244713637749</v>
+        <v>1704.162612139889</v>
       </c>
       <c r="V20" t="n">
-        <v>1229.755298763999</v>
+        <v>1704.162612139889</v>
       </c>
       <c r="W20" t="n">
-        <v>1229.755298763999</v>
+        <v>1704.162612139889</v>
       </c>
       <c r="X20" t="n">
-        <v>1222.554912082163</v>
+        <v>1292.442613307636</v>
       </c>
       <c r="Y20" t="n">
-        <v>1222.554912082163</v>
+        <v>887.1053432625264</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980092</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F21" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082694</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>36.91199246082694</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J21" t="n">
-        <v>36.91199246082694</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K21" t="n">
-        <v>475.2419029331441</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L21" t="n">
-        <v>932.027809635875</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M21" t="n">
-        <v>932.027809635875</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N21" t="n">
-        <v>932.027809635875</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O21" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P21" t="n">
-        <v>1845.599623041337</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q21" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5861,7 +5861,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
         <v>1437.627243819906</v>
@@ -5870,13 +5870,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>308.6531238416347</v>
+        <v>322.7709776640382</v>
       </c>
       <c r="C22" t="n">
-        <v>136.6805607205508</v>
+        <v>150.7984145429542</v>
       </c>
       <c r="D22" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E22" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F22" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G22" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H22" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I22" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K22" t="n">
-        <v>36.91199246082674</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6013137552475</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M22" t="n">
-        <v>782.7871087254983</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N22" t="n">
-        <v>1160.278619601534</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O22" t="n">
-        <v>1515.706748281297</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="P22" t="n">
-        <v>1806.305960203198</v>
+        <v>1734.89676095343</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
@@ -5940,22 +5940,22 @@
         <v>1628.425962247645</v>
       </c>
       <c r="T22" t="n">
-        <v>1385.086614473545</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U22" t="n">
-        <v>1104.902165973849</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="V22" t="n">
-        <v>1016.235392935382</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="W22" t="n">
-        <v>741.3829891078952</v>
+        <v>791.6776425284911</v>
       </c>
       <c r="X22" t="n">
-        <v>498.8190925537004</v>
+        <v>549.1137459742962</v>
       </c>
       <c r="Y22" t="n">
-        <v>498.8190925537004</v>
+        <v>322.7709776640382</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.91199246082674</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="C23" t="n">
-        <v>36.91199246082674</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="D23" t="n">
-        <v>36.91199246082674</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="E23" t="n">
-        <v>36.91199246082674</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F23" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G23" t="n">
         <v>36.91199246082674</v>
@@ -6004,13 +6004,13 @@
         <v>399.5154512777223</v>
       </c>
       <c r="O23" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P23" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q23" t="n">
-        <v>1769.172744187367</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R23" t="n">
         <v>1845.599623041337</v>
@@ -6019,22 +6019,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T23" t="n">
-        <v>1520.30675795911</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U23" t="n">
-        <v>1520.30675795911</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V23" t="n">
-        <v>1162.81734308536</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W23" t="n">
-        <v>862.0976267974665</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X23" t="n">
-        <v>862.0976267974665</v>
+        <v>1329.512330082224</v>
       </c>
       <c r="Y23" t="n">
-        <v>456.7603567523568</v>
+        <v>1292.35217653412</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>44.35863542273858</v>
       </c>
       <c r="J24" t="n">
-        <v>44.35863542273858</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K24" t="n">
-        <v>44.35863542273858</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L24" t="n">
-        <v>44.35863542273858</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M24" t="n">
-        <v>501.1445421254695</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="N24" t="n">
-        <v>957.9304488282003</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="O24" t="n">
-        <v>957.9304488282003</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P24" t="n">
-        <v>1306.794406253902</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q24" t="n">
         <v>1763.580312956633</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>876.528278233494</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="C25" t="n">
-        <v>704.55571511241</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D25" t="n">
-        <v>541.2389422391807</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E25" t="n">
-        <v>375.0307363920342</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F25" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G25" t="n">
         <v>36.91199246082674</v>
@@ -6150,7 +6150,7 @@
         <v>36.91199246082674</v>
       </c>
       <c r="K25" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L25" t="n">
         <v>430.8949765933859</v>
@@ -6177,22 +6177,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T25" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U25" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V25" t="n">
-        <v>1810.453315637499</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W25" t="n">
-        <v>1535.600911810012</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X25" t="n">
-        <v>1293.037015255818</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y25" t="n">
-        <v>1066.69424694556</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.7143392625342</v>
+        <v>922.9099853800977</v>
       </c>
       <c r="C26" t="n">
-        <v>396.7143392625342</v>
+        <v>922.9099853800977</v>
       </c>
       <c r="D26" t="n">
-        <v>396.7143392625342</v>
+        <v>922.9099853800977</v>
       </c>
       <c r="E26" t="n">
-        <v>396.7143392625342</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F26" t="n">
-        <v>334.7803709867919</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G26" t="n">
-        <v>334.7803709867919</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I26" t="n">
         <v>36.91199246082674</v>
@@ -6232,46 +6232,46 @@
         <v>493.6978991635576</v>
       </c>
       <c r="L26" t="n">
-        <v>932.7282368344229</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M26" t="n">
-        <v>932.7282368344229</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N26" t="n">
-        <v>932.7282368344229</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O26" t="n">
-        <v>932.7282368344229</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P26" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q26" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T26" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U26" t="n">
-        <v>1624.67405208597</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V26" t="n">
-        <v>1624.67405208597</v>
+        <v>1383.742914040727</v>
       </c>
       <c r="W26" t="n">
-        <v>1228.282702386317</v>
+        <v>1342.758349671628</v>
       </c>
       <c r="X26" t="n">
-        <v>816.5627035540642</v>
+        <v>1342.758349671628</v>
       </c>
       <c r="Y26" t="n">
-        <v>816.5627035540642</v>
+        <v>1342.758349671628</v>
       </c>
     </row>
     <row r="27">
@@ -6317,10 +6317,10 @@
         <v>850.0084995511718</v>
       </c>
       <c r="N27" t="n">
-        <v>850.0084995511718</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O27" t="n">
-        <v>850.0084995511718</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P27" t="n">
         <v>1306.794406253903</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.1205518639796</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C28" t="n">
-        <v>948.1205518639796</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D28" t="n">
-        <v>784.8037789907503</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E28" t="n">
-        <v>618.5955731436038</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F28" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G28" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H28" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I28" t="n">
         <v>36.91199246082674</v>
@@ -6393,43 +6393,43 @@
         <v>618.1289149610848</v>
       </c>
       <c r="M28" t="n">
-        <v>985.6798532447758</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N28" t="n">
-        <v>1363.171364120812</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O28" t="n">
-        <v>1718.599492800575</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P28" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q28" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S28" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T28" t="n">
-        <v>1798.56100972851</v>
+        <v>1704.705508877583</v>
       </c>
       <c r="U28" t="n">
-        <v>1798.56100972851</v>
+        <v>1424.521060377887</v>
       </c>
       <c r="V28" t="n">
-        <v>1516.849542336539</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="W28" t="n">
-        <v>1241.997138509052</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X28" t="n">
-        <v>999.433241954857</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y28" t="n">
-        <v>999.433241954857</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1719.25290652082</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="C29" t="n">
-        <v>1292.35217653412</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="D29" t="n">
-        <v>1292.35217653412</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E29" t="n">
-        <v>866.3752366819779</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F29" t="n">
-        <v>441.2510548713781</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G29" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I29" t="n">
         <v>36.91199246082674</v>
@@ -6469,46 +6469,46 @@
         <v>493.6978991635576</v>
       </c>
       <c r="L29" t="n">
-        <v>493.6978991635576</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="M29" t="n">
-        <v>950.4838058662885</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="N29" t="n">
-        <v>950.4838058662885</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O29" t="n">
-        <v>1407.269712569019</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P29" t="n">
-        <v>1407.269712569019</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q29" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S29" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T29" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U29" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V29" t="n">
-        <v>1845.599623041337</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="W29" t="n">
-        <v>1845.599623041337</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="X29" t="n">
-        <v>1719.25290652082</v>
+        <v>775.0145122884304</v>
       </c>
       <c r="Y29" t="n">
-        <v>1719.25290652082</v>
+        <v>369.6772422433207</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C30" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E30" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F30" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I30" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J30" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K30" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L30" t="n">
-        <v>765.3953884431487</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="M30" t="n">
-        <v>765.3953884431487</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="N30" t="n">
-        <v>850.0084995511716</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O30" t="n">
-        <v>850.0084995511716</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P30" t="n">
-        <v>1306.794406253902</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q30" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6572,7 +6572,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U30" t="n">
         <v>1437.627243819906</v>
@@ -6581,13 +6581,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W30" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X30" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y30" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>452.338603437836</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C31" t="n">
-        <v>452.338603437836</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D31" t="n">
-        <v>452.338603437836</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E31" t="n">
-        <v>452.338603437836</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F31" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G31" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H31" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I31" t="n">
         <v>36.91199246082674</v>
@@ -6645,28 +6645,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.425962247645</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T31" t="n">
-        <v>1531.650819711185</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U31" t="n">
-        <v>1251.466371211489</v>
+        <v>1395.280127060776</v>
       </c>
       <c r="V31" t="n">
-        <v>969.7549038195179</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="W31" t="n">
-        <v>694.9024999920309</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X31" t="n">
-        <v>452.338603437836</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y31" t="n">
-        <v>452.338603437836</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>463.8127224475267</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="C32" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D32" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E32" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H32" t="n">
         <v>36.91199246082674</v>
@@ -6706,19 +6706,19 @@
         <v>493.6978991635576</v>
       </c>
       <c r="L32" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M32" t="n">
-        <v>814.4714747539724</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N32" t="n">
-        <v>814.4714747539724</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O32" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P32" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q32" t="n">
         <v>1728.043288159434</v>
@@ -6727,25 +6727,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T32" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U32" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V32" t="n">
-        <v>1488.110208167586</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="W32" t="n">
-        <v>1488.110208167586</v>
+        <v>766.4259933857068</v>
       </c>
       <c r="X32" t="n">
-        <v>1288.998356784166</v>
+        <v>354.705994553454</v>
       </c>
       <c r="Y32" t="n">
-        <v>883.6610867390567</v>
+        <v>354.705994553454</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C33" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980091</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H33" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I33" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J33" t="n">
-        <v>316.0561247023296</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K33" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L33" t="n">
-        <v>1229.627938107791</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="M33" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="N33" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="O33" t="n">
-        <v>1845.599623041337</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P33" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q33" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6809,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6818,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="34">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>911.6745856373313</v>
+        <v>953.8361452792958</v>
       </c>
       <c r="C34" t="n">
-        <v>739.7020225162473</v>
+        <v>781.8635821582118</v>
       </c>
       <c r="D34" t="n">
-        <v>576.385249643018</v>
+        <v>618.5468092849825</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1770437958716</v>
+        <v>452.338603437836</v>
       </c>
       <c r="F34" t="n">
-        <v>410.1770437958716</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G34" t="n">
-        <v>243.9200740901037</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H34" t="n">
-        <v>100.1238055982581</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I34" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K34" t="n">
-        <v>263.4395936666639</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L34" t="n">
-        <v>618.1289149610848</v>
+        <v>449.0926419794055</v>
       </c>
       <c r="M34" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O34" t="n">
         <v>1428.000280878674</v>
@@ -6882,28 +6882,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R34" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S34" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T34" t="n">
-        <v>1845.599623041337</v>
+        <v>1645.197286129106</v>
       </c>
       <c r="U34" t="n">
-        <v>1845.599623041337</v>
+        <v>1645.197286129106</v>
       </c>
       <c r="V34" t="n">
-        <v>1845.599623041337</v>
+        <v>1645.197286129106</v>
       </c>
       <c r="W34" t="n">
-        <v>1570.74721921385</v>
+        <v>1370.344882301619</v>
       </c>
       <c r="X34" t="n">
-        <v>1328.183322659655</v>
+        <v>1370.344882301619</v>
       </c>
       <c r="Y34" t="n">
-        <v>1101.840554349397</v>
+        <v>1144.002113991362</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>866.3752366819779</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="C35" t="n">
-        <v>866.3752366819779</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="D35" t="n">
-        <v>866.3752366819779</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E35" t="n">
-        <v>866.3752366819779</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F35" t="n">
         <v>441.2510548713781</v>
@@ -6946,10 +6946,10 @@
         <v>399.5154512777223</v>
       </c>
       <c r="M35" t="n">
-        <v>815.1719019525203</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N35" t="n">
-        <v>815.1719019525203</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O35" t="n">
         <v>815.1719019525203</v>
@@ -6964,25 +6964,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S35" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T35" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U35" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.943599805761</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.943599805761</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="X35" t="n">
-        <v>1286.223600973508</v>
+        <v>846.5883249164879</v>
       </c>
       <c r="Y35" t="n">
-        <v>1286.223600973508</v>
+        <v>441.2510548713781</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>44.35863542273858</v>
       </c>
       <c r="J36" t="n">
-        <v>316.0561247023297</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="K36" t="n">
-        <v>316.0561247023297</v>
+        <v>501.1445421254695</v>
       </c>
       <c r="L36" t="n">
-        <v>772.8420314050605</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="M36" t="n">
-        <v>772.8420314050605</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="N36" t="n">
-        <v>1229.627938107791</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="O36" t="n">
-        <v>1306.794406253902</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P36" t="n">
         <v>1763.580312956633</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>911.6745856373313</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C37" t="n">
-        <v>739.7020225162473</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D37" t="n">
-        <v>576.385249643018</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E37" t="n">
-        <v>518.8270048838798</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F37" t="n">
-        <v>346.9652306584402</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G37" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I37" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K37" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L37" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M37" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N37" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O37" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P37" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q37" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R37" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S37" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T37" t="n">
-        <v>1845.599623041337</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="U37" t="n">
-        <v>1845.599623041337</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="V37" t="n">
-        <v>1845.599623041337</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="W37" t="n">
-        <v>1570.74721921385</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="X37" t="n">
-        <v>1328.183322659655</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1101.840554349397</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>79.27679934513242</v>
+        <v>1218.946802910463</v>
       </c>
       <c r="C38" t="n">
-        <v>79.27679934513242</v>
+        <v>1218.946802910463</v>
       </c>
       <c r="D38" t="n">
-        <v>79.27679934513242</v>
+        <v>795.6541820954632</v>
       </c>
       <c r="E38" t="n">
-        <v>79.27679934513242</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F38" t="n">
-        <v>79.27679934513242</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G38" t="n">
-        <v>79.27679934513242</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I38" t="n">
         <v>36.91199246082674</v>
@@ -7177,19 +7177,19 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L38" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M38" t="n">
-        <v>1313.087264683184</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N38" t="n">
-        <v>1313.087264683184</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="O38" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P38" t="n">
         <v>1728.043288159434</v>
@@ -7210,16 +7210,16 @@
         <v>1261.951848555523</v>
       </c>
       <c r="V38" t="n">
-        <v>904.4624336817722</v>
+        <v>1218.946802910463</v>
       </c>
       <c r="W38" t="n">
-        <v>904.4624336817722</v>
+        <v>1218.946802910463</v>
       </c>
       <c r="X38" t="n">
-        <v>904.4624336817722</v>
+        <v>1218.946802910463</v>
       </c>
       <c r="Y38" t="n">
-        <v>499.1251636366625</v>
+        <v>1218.946802910463</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C39" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E39" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I39" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J39" t="n">
-        <v>44.35863542273858</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K39" t="n">
-        <v>501.1445421254695</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>932.0278096358747</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M39" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N39" t="n">
-        <v>1845.599623041337</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O39" t="n">
-        <v>1845.599623041337</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P39" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q39" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7283,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7292,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1020.32454672534</v>
+        <v>437.4994466284444</v>
       </c>
       <c r="C40" t="n">
-        <v>848.3519836042556</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="D40" t="n">
-        <v>685.0352107310263</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="E40" t="n">
-        <v>518.8270048838798</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F40" t="n">
-        <v>346.9652306584402</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G40" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H40" t="n">
         <v>36.91199246082674</v>
@@ -7332,25 +7332,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J40" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K40" t="n">
-        <v>303.8948463526241</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L40" t="n">
-        <v>303.8948463526241</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M40" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N40" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O40" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P40" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
@@ -7359,25 +7359,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S40" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T40" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786372</v>
       </c>
       <c r="U40" t="n">
-        <v>1845.599623041337</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V40" t="n">
-        <v>1563.888155649366</v>
+        <v>870.229311894705</v>
       </c>
       <c r="W40" t="n">
-        <v>1563.888155649366</v>
+        <v>870.229311894705</v>
       </c>
       <c r="X40" t="n">
-        <v>1321.324259095171</v>
+        <v>627.6654153405101</v>
       </c>
       <c r="Y40" t="n">
-        <v>1094.981490784913</v>
+        <v>627.6654153405101</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>888.013114123569</v>
+        <v>484.6140693902421</v>
       </c>
       <c r="C41" t="n">
-        <v>888.013114123569</v>
+        <v>484.6140693902421</v>
       </c>
       <c r="D41" t="n">
-        <v>888.013114123569</v>
+        <v>61.32144857524236</v>
       </c>
       <c r="E41" t="n">
-        <v>462.0361742714265</v>
+        <v>61.32144857524236</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082674</v>
+        <v>61.32144857524236</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082674</v>
+        <v>61.32144857524236</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082674</v>
+        <v>61.32144857524236</v>
       </c>
       <c r="I41" t="n">
         <v>36.91199246082674</v>
@@ -7414,49 +7414,49 @@
         <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L41" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M41" t="n">
-        <v>932.7282368344229</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N41" t="n">
-        <v>1389.514143537154</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O41" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P41" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q41" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S41" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T41" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U41" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V41" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W41" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="X41" t="n">
-        <v>1713.198748460209</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="Y41" t="n">
-        <v>1307.861478415099</v>
+        <v>904.4624336817722</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C42" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E42" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I42" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J42" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K42" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L42" t="n">
-        <v>950.4838058662885</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M42" t="n">
-        <v>950.4838058662885</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N42" t="n">
-        <v>950.4838058662885</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O42" t="n">
-        <v>1407.269712569019</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P42" t="n">
-        <v>1407.269712569019</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q42" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7520,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7529,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>904.8155220728472</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="C43" t="n">
-        <v>732.8429589517632</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="D43" t="n">
-        <v>732.8429589517632</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="E43" t="n">
-        <v>618.5955731436038</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F43" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G43" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H43" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I43" t="n">
         <v>36.91199246082674</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K43" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L43" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M43" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N43" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O43" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P43" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q43" t="n">
         <v>1845.599623041337</v>
@@ -7599,22 +7599,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T43" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U43" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V43" t="n">
-        <v>1563.888155649366</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W43" t="n">
-        <v>1563.888155649366</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X43" t="n">
-        <v>1321.324259095171</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y43" t="n">
-        <v>1094.981490784913</v>
+        <v>398.9397353983319</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1433.879624209084</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="C44" t="n">
-        <v>1006.978894222384</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="D44" t="n">
-        <v>888.013114123569</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E44" t="n">
-        <v>462.0361742714265</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F44" t="n">
+        <v>369.6772422433207</v>
+      </c>
+      <c r="G44" t="n">
+        <v>369.6772422433207</v>
+      </c>
+      <c r="H44" t="n">
+        <v>71.80886371735554</v>
+      </c>
+      <c r="I44" t="n">
         <v>36.91199246082674</v>
       </c>
-      <c r="G44" t="n">
-        <v>36.91199246082674</v>
-      </c>
-      <c r="H44" t="n">
-        <v>36.91199246082674</v>
-      </c>
-      <c r="I44" t="n">
-        <v>69.68908680674954</v>
-      </c>
       <c r="J44" t="n">
-        <v>188.0194673569133</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>373.6110430298049</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L44" t="n">
-        <v>609.8503400836619</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M44" t="n">
-        <v>877.8583600801464</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N44" t="n">
-        <v>1150.952773895493</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O44" t="n">
-        <v>1406.661104862769</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P44" t="n">
-        <v>1619.295836682436</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="Q44" t="n">
-        <v>1771.147593566359</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R44" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T44" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U44" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555523</v>
       </c>
       <c r="V44" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817722</v>
       </c>
       <c r="W44" t="n">
-        <v>1845.599623041337</v>
+        <v>508.071083982119</v>
       </c>
       <c r="X44" t="n">
-        <v>1433.879624209084</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="Y44" t="n">
-        <v>1433.879624209084</v>
+        <v>369.6772422433207</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>593.9270797520105</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C45" t="n">
-        <v>476.4211762695153</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D45" t="n">
-        <v>372.5812177848003</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E45" t="n">
-        <v>267.8792840577376</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F45" t="n">
-        <v>174.2334537406417</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G45" t="n">
-        <v>81.12812477832058</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H45" t="n">
-        <v>36.91199246082674</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I45" t="n">
-        <v>76.3635263983946</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J45" t="n">
-        <v>143.7823902792999</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K45" t="n">
-        <v>271.7121259882142</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L45" t="n">
-        <v>451.256856096522</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M45" t="n">
-        <v>663.9225786330941</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N45" t="n">
-        <v>1028.557527958265</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O45" t="n">
-        <v>1226.785423471661</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P45" t="n">
-        <v>1683.571330174392</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q45" t="n">
-        <v>1779.71040519257</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R45" t="n">
-        <v>1813.989022209105</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>1750.281684169556</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1612.224638606045</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U45" t="n">
-        <v>1427.518840079634</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>1222.545701218901</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>1026.024324052118</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X45" t="n">
-        <v>862.5469778187809</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y45" t="n">
-        <v>722.8540891720733</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>208.8845555819107</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="C46" t="n">
-        <v>36.91199246082674</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="D46" t="n">
-        <v>36.91199246082674</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="E46" t="n">
-        <v>36.91199246082674</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="F46" t="n">
-        <v>36.91199246082674</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082674</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="H46" t="n">
         <v>36.91199246082674</v>
@@ -7806,25 +7806,25 @@
         <v>36.91199246082674</v>
       </c>
       <c r="J46" t="n">
-        <v>71.57947588488697</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K46" t="n">
-        <v>172.8729963090049</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L46" t="n">
-        <v>267.0369441619592</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
-        <v>723.8228508646901</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N46" t="n">
-        <v>1180.608757567421</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O46" t="n">
-        <v>1268.487797316826</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P46" t="n">
-        <v>1653.342131659639</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q46" t="n">
         <v>1845.599623041337</v>
@@ -7836,22 +7836,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T46" t="n">
-        <v>1605.657702740355</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.521060377887</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V46" t="n">
-        <v>1142.809592985916</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W46" t="n">
-        <v>867.9571891584293</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X46" t="n">
-        <v>625.3932926042344</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y46" t="n">
-        <v>399.0505242939764</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
   </sheetData>
@@ -7990,13 +7990,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>457.1346235160602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>457.4303624918456</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>381.6805385660551</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
         <v>484.1469440493127</v>
@@ -8145,10 +8145,10 @@
         <v>21.91875989570122</v>
       </c>
       <c r="M4" t="n">
-        <v>400.5044494188121</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>402.0534574160406</v>
+        <v>384.8453003067499</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8221,13 +8221,13 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M5" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8239,7 +8239,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>111.5240152033034</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>100.4610141345439</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,13 +8309,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q6" t="n">
-        <v>100.692965709293</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8376,10 +8376,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>232.5722561371962</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8391,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>70.95688127998122</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>362.0008377727922</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P8" t="n">
-        <v>456.7228602710902</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>101.0427079326425</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>107.2386302028318</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8622,10 +8622,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>385.5915703929544</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O10" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
         <v>315.9153581548562</v>
@@ -8695,22 +8695,22 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L11" t="n">
-        <v>115.5109099618853</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8765,31 +8765,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>183.1929492179942</v>
       </c>
       <c r="L12" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>484.4966862726622</v>
       </c>
       <c r="N12" t="n">
-        <v>464.1005135391146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8850,16 +8850,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>170.5153675464292</v>
       </c>
       <c r="N13" t="n">
-        <v>255.3890173889887</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>478.5220861203824</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L14" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947802</v>
+        <v>457.1346235160603</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
@@ -8947,10 +8947,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726622</v>
+        <v>101.0427079326423</v>
       </c>
       <c r="N15" t="n">
-        <v>464.1005135391146</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>484.5717954825564</v>
@@ -9029,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9090,16 +9090,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>21.91875989570122</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N16" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>364.3093421868743</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>35.76460079480934</v>
@@ -9172,22 +9172,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>457.1346235160602</v>
       </c>
       <c r="O17" t="n">
-        <v>480.8559469023526</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P17" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>483.7991395936675</v>
@@ -9254,13 +9254,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>383.0815870834488</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q18" t="n">
         <v>484.1469440493127</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9333,16 +9333,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>320.1078160920833</v>
       </c>
       <c r="O19" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.31013128815742</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,10 +9403,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L20" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
@@ -9415,7 +9415,7 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>114.5898268852865</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
         <v>498.9752675705655</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>465.1567191589062</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
         <v>483.9149924745637</v>
@@ -9494,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>483.1707469651629</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>100.6929657092928</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9573,13 +9573,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.31013128815742</v>
+        <v>136.4406355808522</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>498.7908651163583</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P23" t="n">
         <v>498.9752675705655</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>112.2315174240589</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M24" t="n">
         <v>484.4966862726622</v>
       </c>
       <c r="N24" t="n">
-        <v>482.7429339738759</v>
+        <v>99.28895563385595</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>374.1586769883663</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9798,10 +9798,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L25" t="n">
-        <v>191.0656113368345</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9880,7 +9880,7 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L26" t="n">
-        <v>481.7770299789515</v>
+        <v>363.0332573709691</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
@@ -9898,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9965,13 +9965,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738759</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>484.1469440493127</v>
@@ -10041,7 +10041,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>393.8390139154162</v>
+        <v>228.5874162576999</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10050,10 +10050,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L29" t="n">
-        <v>38.31204243262292</v>
+        <v>481.7770299789515</v>
       </c>
       <c r="M29" t="n">
         <v>498.831168659766</v>
@@ -10126,16 +10126,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.1383873221887</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
@@ -10196,13 +10196,13 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>100.4610141345441</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>106.8108172115445</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10354,22 +10354,22 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>363.0332573709691</v>
       </c>
       <c r="M32" t="n">
-        <v>361.4449756170225</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>498.9752675705655</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10433,25 +10433,25 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L33" t="n">
-        <v>483.9149924745637</v>
+        <v>100.4610141345437</v>
       </c>
       <c r="M33" t="n">
-        <v>183.8904958969891</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>417.7126065281028</v>
+        <v>271.0481665010509</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>64.1093491866089</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
         <v>315.9153581548562</v>
@@ -10594,13 +10594,13 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>457.2862635810461</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>457.2459600376383</v>
       </c>
       <c r="P35" t="n">
         <v>498.9752675705655</v>
@@ -10664,25 +10664,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>375.4846162958656</v>
       </c>
       <c r="N36" t="n">
         <v>482.7429339738759</v>
       </c>
       <c r="O36" t="n">
-        <v>101.1178171425365</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>456.4271212953047</v>
       </c>
       <c r="O38" t="n">
-        <v>456.538457816883</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10901,31 +10901,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>457.7507104621137</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>484.4966862726622</v>
       </c>
       <c r="N39" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>99.71676862514317</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K40" t="n">
-        <v>232.5722561371962</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L40" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
@@ -11001,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>114.6301304286942</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>498.6795285947802</v>
+        <v>457.1346235160602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
@@ -11083,7 +11083,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
@@ -11153,16 +11153,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q42" t="n">
-        <v>465.5045236145514</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11226,7 +11226,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>100.3044564185466</v>
+        <v>170.5153675464292</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
@@ -11238,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>455.2721730654569</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>145.4537304251051</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P45" t="n">
-        <v>303.8708765028182</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>31.82403988727525</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>360.5795509714187</v>
+        <v>170.5153675464292</v>
       </c>
       <c r="N46" t="n">
-        <v>361.6870882498708</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>410.4509904989008</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>258.7046170447536</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -22603,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22704,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -22725,7 +22725,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>5.853936734709123</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,13 +22755,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>123.0693372095557</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>276.2942736182749</v>
       </c>
       <c r="C5" t="n">
-        <v>250.8835480763788</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>421.717170453621</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22843,10 +22843,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22998,16 +22998,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>213.1739811970986</v>
       </c>
       <c r="V7" t="n">
-        <v>245.5584050229524</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>348.7465745575959</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23077,7 +23077,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>211.1145727131396</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,22 +23229,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>102.6641612710992</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>79.89309183157178</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>361.6237308524625</v>
+        <v>210.4976505526176</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23278,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -23326,7 +23326,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.2900375811184</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>241.0685128800445</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23497,13 +23497,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>20.02185887568152</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -23515,7 +23515,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>181.1027434057587</v>
       </c>
     </row>
     <row r="15">
@@ -23658,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>150.6409718854048</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>175.1364185614017</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>343.8785566576705</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>77.77912222016766</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -23752,7 +23752,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -23797,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>39.22976644528862</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>34.36680186923041</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -23974,10 +23974,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
@@ -23986,10 +23986,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>78.69367445337963</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>400.4744160289131</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>48.93604728319076</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -24147,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>191.1142474099688</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -24214,13 +24214,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>94.71491707764216</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>364.4953453320353</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -24417,13 +24417,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>244.0995083882523</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>359.5583113995089</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>351.8527174772488</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>137.4647458349764</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>101.4207812742428</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>282.5195494886186</v>
+        <v>23.67799635497005</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24849,16 +24849,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>145.0985631852634</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>28.94852398394013</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>395.9235133176193</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24934,7 +24934,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>210.4820659743445</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>36.19118757106975</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>89.07586793294948</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
@@ -25165,7 +25165,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>207.7350577217926</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>350.3074311662988</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>150.0000851585038</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -25374,10 +25374,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25408,10 +25408,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>252.9485359252429</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>311.3395255364037</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>114.3539344059674</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>108.408814355827</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25599,13 +25599,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25633,13 +25633,13 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -25648,7 +25648,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>10.38254099069204</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>276.5259330086133</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>51.4412118385972</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>101.3111002675547</v>
       </c>
     </row>
     <row r="44">
@@ -25867,22 +25867,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>301.2835723090226</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.5407640982037</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>276.9172463784954</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.33366223977255</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>211.0342068405331</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6309676944925</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>270.5928955225199</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -26037,13 +26037,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8072088346196</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>135.3594606409217</v>
+        <v>73.52624959129673</v>
       </c>
       <c r="I46" t="n">
-        <v>75.09789708720231</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.17324947922506</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>154.7151017266777</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>98.01439037545083</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>451977.0163767166</v>
+        <v>451977.0163767164</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>451977.0163767166</v>
+        <v>451977.0163767165</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>451977.0163767166</v>
+        <v>451977.0163767164</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>451977.0163767165</v>
+        <v>451977.0163767166</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>451977.0163767165</v>
+        <v>451977.0163767166</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>451977.0163767165</v>
+        <v>451977.0163767166</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>451977.0163767165</v>
+        <v>451977.0163767164</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>451977.0163767165</v>
+        <v>451977.0163767166</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>420509.5690038484</v>
+        <v>451977.0163767166</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127796.9642511872</v>
+        <v>127796.9642511871</v>
       </c>
       <c r="C2" t="n">
         <v>127796.9642511872</v>
@@ -26355,7 +26355,7 @@
         <v>127796.9642511872</v>
       </c>
       <c r="P2" t="n">
-        <v>132107.1774243198</v>
+        <v>127796.9642511872</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>290546.0793279806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>53951.29027979782</v>
+      </c>
+      <c r="C4" t="n">
         <v>53951.29027979783</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
+        <v>53951.29027979783</v>
+      </c>
+      <c r="E4" t="n">
         <v>53951.29027979782</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
+        <v>53951.29027979783</v>
+      </c>
+      <c r="G4" t="n">
         <v>53951.29027979782</v>
-      </c>
-      <c r="E4" t="n">
-        <v>53951.29027979783</v>
-      </c>
-      <c r="F4" t="n">
-        <v>53951.29027979782</v>
-      </c>
-      <c r="G4" t="n">
-        <v>53951.29027979783</v>
       </c>
       <c r="H4" t="n">
         <v>53951.29027979782</v>
@@ -26444,22 +26444,22 @@
         <v>53951.29027979783</v>
       </c>
       <c r="K4" t="n">
-        <v>53951.29027979782</v>
+        <v>53951.29027979783</v>
       </c>
       <c r="L4" t="n">
-        <v>53951.29027979782</v>
+        <v>53951.29027979783</v>
       </c>
       <c r="M4" t="n">
         <v>53951.29027979783</v>
       </c>
       <c r="N4" t="n">
-        <v>53951.29027979782</v>
+        <v>53951.29027979783</v>
       </c>
       <c r="O4" t="n">
         <v>53951.29027979782</v>
       </c>
       <c r="P4" t="n">
-        <v>9044.08874318117</v>
+        <v>53951.29027979782</v>
       </c>
     </row>
     <row r="5">
@@ -26511,7 +26511,7 @@
         <v>28053.11427022832</v>
       </c>
       <c r="P5" t="n">
-        <v>37569.53993664354</v>
+        <v>28053.11427022832</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142460.7609169594</v>
+        <v>-143165.120738451</v>
       </c>
       <c r="C6" t="n">
-        <v>12164.95970116107</v>
+        <v>11460.59987966956</v>
       </c>
       <c r="D6" t="n">
-        <v>12164.95970116105</v>
+        <v>11460.59987966952</v>
       </c>
       <c r="E6" t="n">
-        <v>45792.55970116105</v>
+        <v>45088.19987966955</v>
       </c>
       <c r="F6" t="n">
-        <v>45792.55970116105</v>
+        <v>45088.19987966952</v>
       </c>
       <c r="G6" t="n">
-        <v>45792.55970116108</v>
+        <v>45088.19987966953</v>
       </c>
       <c r="H6" t="n">
-        <v>45792.55970116107</v>
+        <v>45088.19987966953</v>
       </c>
       <c r="I6" t="n">
-        <v>45792.55970116107</v>
+        <v>45088.1998796695</v>
       </c>
       <c r="J6" t="n">
-        <v>-74929.95724159581</v>
+        <v>-75634.31706308738</v>
       </c>
       <c r="K6" t="n">
-        <v>45792.55970116104</v>
+        <v>45088.19987966953</v>
       </c>
       <c r="L6" t="n">
-        <v>45792.55970116105</v>
+        <v>45088.19987966955</v>
       </c>
       <c r="M6" t="n">
-        <v>45792.55970116104</v>
+        <v>45088.19987966952</v>
       </c>
       <c r="N6" t="n">
-        <v>45792.55970116104</v>
+        <v>45088.19987966955</v>
       </c>
       <c r="O6" t="n">
-        <v>45792.55970116104</v>
+        <v>45088.1998796695</v>
       </c>
       <c r="P6" t="n">
-        <v>-205052.5305834855</v>
+        <v>45088.19987966958</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>436.5332874502396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>436.5332874502396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.754907688242168</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>17.97244836221011</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>67.65607865095625</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>148.9455964049438</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>223.2308388482349</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>276.9375950122762</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>308.1464346130528</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>313.1325660822709</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>295.6822027573128</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>252.3579192038343</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>189.5102876186616</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2367200715422</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.98995894581844</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>7.682108405280094</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1403926150593734</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9389583918741004</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>9.068361310994602</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>32.32817270268285</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>88.71097683929824</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>151.621189094863</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>203.8733999549445</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>237.9106416603806</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>244.2074284199223</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>223.4020872105014</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>179.2998704623447</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.8572150750168</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>58.29778506741128</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>17.44074030520532</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>3.784661237422359</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06177357841276979</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.787191174090596</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>6.998845166005486</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>23.67298548992447</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>55.65441600820513</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>91.45730186252558</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>117.0338587370692</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>123.3957946804013</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>120.4617184860637</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>111.2658943160054</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>95.20719436455714</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.91652640498619</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>35.39497770047352</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>13.71859527937884</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>3.363453198387091</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04293770040494165</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="P2" t="n">
-        <v>419.8550006816143</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>359.9096973612264</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>461.3999057603342</v>
@@ -34865,10 +34865,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>377.9290095273263</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>381.3045564404402</v>
+        <v>364.0963993311495</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34941,13 +34941,13 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M5" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.9459274203145</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35096,10 +35096,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>211.6076016844843</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35111,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>324.7212149383462</v>
+      </c>
+      <c r="O8" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>419.1474984608589</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M9" t="n">
+        <v>77.9459274203145</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="N9" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O9" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="P9" t="n">
-        <v>85.46778899800312</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35342,10 +35342,10 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>364.842669417354</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
         <v>293.5345574968697</v>
@@ -35415,22 +35415,22 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L11" t="n">
-        <v>77.19886752926243</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>160.7937153846608</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="N12" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,16 +35570,16 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>147.9399276549434</v>
       </c>
       <c r="N13" t="n">
-        <v>234.6401164133883</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
         <v>359.0183117977405</v>
@@ -35588,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816143</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L15" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="N15" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>461.3999057603342</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>358.2720417115361</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>359.0183117977405</v>
+        <v>341.8101546884499</v>
       </c>
       <c r="P16" t="n">
         <v>293.5345574968697</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35892,22 +35892,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>419.8550006816142</v>
+      </c>
+      <c r="O17" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>443.4649875463285</v>
-      </c>
       <c r="P17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>461.3999057603342</v>
@@ -35974,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>77.9459274203145</v>
+      </c>
+      <c r="P18" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="O18" t="n">
-        <v>359.9096973612266</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>461.3999057603342</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
@@ -36053,16 +36053,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>381.3045564404402</v>
+        <v>299.3589151164829</v>
       </c>
       <c r="O19" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.69056852337247</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,10 +36123,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>77.19886752926243</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>461.3999057603342</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L21" t="n">
         <v>461.3999057603342</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36293,13 +36293,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.69056852337247</v>
+        <v>111.8210728160673</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="P23" t="n">
         <v>461.3999057603342</v>
@@ -36381,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>77.19886752926243</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M24" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="N24" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>352.3878357835376</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36518,10 +36518,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L25" t="n">
-        <v>169.1468514411333</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
         <v>395.137166636617</v>
@@ -36600,7 +36600,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L26" t="n">
-        <v>443.4649875463285</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>461.3999057603342</v>
@@ -36761,7 +36761,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>371.2635740239303</v>
+        <v>206.0119763662141</v>
       </c>
       <c r="N28" t="n">
         <v>381.3045564404402</v>
@@ -36770,10 +36770,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="M29" t="n">
         <v>461.3999057603342</v>
@@ -36846,16 +36846,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.0137127175907</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
@@ -36916,13 +36916,13 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>85.46778899800287</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="M32" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37153,25 +37153,25 @@
         <v>461.3999057603342</v>
       </c>
       <c r="L33" t="n">
+        <v>77.94592742031416</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M33" t="n">
-        <v>160.7937153846612</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M34" t="n">
-        <v>395.137166636617</v>
+        <v>248.4727266095651</v>
       </c>
       <c r="N34" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O34" t="n">
-        <v>41.61016168818445</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P34" t="n">
         <v>293.5345574968697</v>
@@ -37314,13 +37314,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>419.8550006816142</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>461.3999057603342</v>
@@ -37384,25 +37384,25 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L36" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>352.3878357835376</v>
       </c>
       <c r="N36" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="O36" t="n">
-        <v>77.94592742031428</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M37" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N37" t="n">
         <v>381.3045564404402</v>
@@ -37484,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>419.1474984608587</v>
+      </c>
+      <c r="O38" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
+      <c r="P38" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>419.1474984608589</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L39" t="n">
-        <v>435.2356237478841</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>77.9459274203145</v>
+      </c>
+      <c r="Q39" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>211.6076016844843</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
         <v>395.137166636617</v>
@@ -37721,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>419.8550006816142</v>
+      </c>
+      <c r="O41" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>77.19886752926243</v>
-      </c>
-      <c r="N41" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>77.9459274203145</v>
+      </c>
+      <c r="P42" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
+      <c r="Q42" t="n">
         <v>461.3999057603342</v>
       </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>442.7574853255729</v>
-      </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
         <v>228.8157587937749</v>
@@ -37946,7 +37946,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M43" t="n">
-        <v>77.72901652706079</v>
+        <v>147.9399276549434</v>
       </c>
       <c r="N43" t="n">
         <v>381.3045564404402</v>
@@ -37958,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>33.10817610699274</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>119.5256369193573</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>187.4662380534255</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L44" t="n">
-        <v>238.6255525796533</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>270.715171713621</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>275.8529432478249</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>258.2912434012887</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P44" t="n">
-        <v>214.782557393603</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.3856130140635</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="R44" t="n">
-        <v>75.20407017674572</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>39.85003428037157</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>68.09986250596491</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>129.2219552615296</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L45" t="n">
-        <v>181.3583132407149</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>214.8138611480526</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>368.3181306314857</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>200.2301974882792</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P45" t="n">
         <v>461.3999057603342</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.11017678603825</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R45" t="n">
-        <v>34.62486567326713</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>35.01766002430327</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>102.3166872970888</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>95.11509884136794</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>461.3999057603342</v>
+        <v>147.9399276549434</v>
       </c>
       <c r="N46" t="n">
-        <v>461.3999057603342</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>88.76670681758092</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>388.7417518614268</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>194.1994862441397</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
